--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43431,6 +43431,41 @@
         <v>6456400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>7292600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43466,6 +43466,41 @@
         <v>7292600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>3418000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43501,6 +43501,41 @@
         <v>3418000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2222900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43536,6 +43536,41 @@
         <v>2222900</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2138500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43571,6 +43571,41 @@
         <v>2138500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1233600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43606,6 +43606,41 @@
         <v>1233600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>920800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43641,6 +43641,41 @@
         <v>920800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1192400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43676,6 +43676,41 @@
         <v>1192400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1063500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43711,6 +43711,41 @@
         <v>1063500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>844000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43746,6 +43746,41 @@
         <v>844000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1701300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43781,6 +43781,41 @@
         <v>1701300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1241700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43816,6 +43816,41 @@
         <v>1241700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>690800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43851,6 +43851,76 @@
         <v>690800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>891600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>977700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43921,6 +43921,76 @@
         <v>977700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1063700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>737100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43991,6 +43991,41 @@
         <v>737100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>908000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44026,6 +44026,41 @@
         <v>908000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>527700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44061,6 +44061,41 @@
         <v>527700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>278800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44096,6 +44096,41 @@
         <v>278800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>682600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44131,6 +44131,76 @@
         <v>682600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>756900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>669100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44201,6 +44201,41 @@
         <v>669100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>401800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44236,6 +44236,41 @@
         <v>401800</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1254300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2420"/>
+  <dimension ref="A1:I2421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85536,6 +85536,41 @@
         <v>1254300</v>
       </c>
     </row>
+    <row r="2421">
+      <c r="A2421" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2421" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2421" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2421" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G2421" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2421" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I2421" t="n">
+        <v>1040600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2421"/>
+  <dimension ref="A1:I2422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85571,6 +85571,41 @@
         <v>1040600</v>
       </c>
     </row>
+    <row r="2422">
+      <c r="A2422" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2422" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2422" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2422" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2422" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G2422" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2422" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2422" t="n">
+        <v>1048100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2422"/>
+  <dimension ref="A1:I2423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85606,6 +85606,41 @@
         <v>1048100</v>
       </c>
     </row>
+    <row r="2423">
+      <c r="A2423" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2423" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2423" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2423" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2423" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2423" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2423" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I2423" t="n">
+        <v>1265100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2423"/>
+  <dimension ref="A1:I2424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85641,6 +85641,41 @@
         <v>1265100</v>
       </c>
     </row>
+    <row r="2424">
+      <c r="A2424" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2424" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2424" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2424" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F2424" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G2424" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H2424" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2424" t="n">
+        <v>3713100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2424"/>
+  <dimension ref="A1:I2425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85676,6 +85676,41 @@
         <v>3713100</v>
       </c>
     </row>
+    <row r="2425">
+      <c r="A2425" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2425" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2425" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2425" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2425" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2425" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I2425" t="n">
+        <v>1997800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2425"/>
+  <dimension ref="A1:I2426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85711,6 +85711,41 @@
         <v>1997800</v>
       </c>
     </row>
+    <row r="2426">
+      <c r="A2426" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2426" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2426" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2426" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2426" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2426" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2426" t="n">
+        <v>1736400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2426"/>
+  <dimension ref="A1:I2427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85746,6 +85746,41 @@
         <v>1736400</v>
       </c>
     </row>
+    <row r="2427">
+      <c r="A2427" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2427" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2427" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2427" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2427" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H2427" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2427" t="n">
+        <v>2846700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2427"/>
+  <dimension ref="A1:I2428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85781,6 +85781,41 @@
         <v>2846700</v>
       </c>
     </row>
+    <row r="2428">
+      <c r="A2428" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2428" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2428" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2428" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2428" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G2428" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H2428" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2428" t="n">
+        <v>5054600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2428"/>
+  <dimension ref="A1:I2429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85816,6 +85816,41 @@
         <v>5054600</v>
       </c>
     </row>
+    <row r="2429">
+      <c r="A2429" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2429" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2429" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F2429" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2429" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2429" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2429" t="n">
+        <v>5269900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2429"/>
+  <dimension ref="A1:I2430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85851,6 +85851,41 @@
         <v>5269900</v>
       </c>
     </row>
+    <row r="2430">
+      <c r="A2430" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2430" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2430" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F2430" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G2430" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H2430" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I2430" t="n">
+        <v>5967900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2430"/>
+  <dimension ref="A1:I2431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85886,6 +85886,41 @@
         <v>5967900</v>
       </c>
     </row>
+    <row r="2431">
+      <c r="A2431" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2431" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2431" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2431" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2431" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2431" t="n">
+        <v>3185500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2431"/>
+  <dimension ref="A1:I2432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85921,6 +85921,41 @@
         <v>3185500</v>
       </c>
     </row>
+    <row r="2432">
+      <c r="A2432" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2432" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2432" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F2432" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G2432" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2432" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I2432" t="n">
+        <v>4588100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2432"/>
+  <dimension ref="A1:I2433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85956,6 +85956,41 @@
         <v>4588100</v>
       </c>
     </row>
+    <row r="2433">
+      <c r="A2433" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2433" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2433" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F2433" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G2433" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2433" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I2433" t="n">
+        <v>4184900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2433"/>
+  <dimension ref="A1:I2434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85991,6 +85991,41 @@
         <v>4184900</v>
       </c>
     </row>
+    <row r="2434">
+      <c r="A2434" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2434" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F2434" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2434" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H2434" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I2434" t="n">
+        <v>2579700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5028.xlsx
+++ b/data/5028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2434"/>
+  <dimension ref="A1:I2435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86026,6 +86026,41 @@
         <v>2579700</v>
       </c>
     </row>
+    <row r="2435">
+      <c r="A2435" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>HTPADU</t>
+        </is>
+      </c>
+      <c r="E2435" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2435" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G2435" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H2435" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I2435" t="n">
+        <v>2024400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
